--- a/relatedFiles/other files/services import list.xlsx
+++ b/relatedFiles/other files/services import list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB41AD9D-C9E0-4D02-9692-48E92918749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E589F-1557-4863-8A3F-405054BE1144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="128">
   <si>
     <t>title</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>full description</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -778,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,18 +862,16 @@
         <v>124</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">RANDBETWEEN(2,5)</f>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I2">
         <v>11</v>
@@ -887,7 +888,7 @@
       </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(K2500,7000)</f>
-        <v>1337</v>
+        <v>4645</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>17</v>
@@ -906,7 +907,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -932,7 +933,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" ca="1" si="3">RANDBETWEEN(500,7000)</f>
-        <v>3662</v>
+        <v>979</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>17</v>
@@ -951,14 +952,14 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
@@ -977,7 +978,7 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="3"/>
-        <v>6182</v>
+        <v>1002</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>17</v>
@@ -996,7 +997,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1022,7 +1023,7 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="3"/>
-        <v>4658</v>
+        <v>1689</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>17</v>
@@ -1048,7 +1049,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
@@ -1067,7 +1068,7 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>979</v>
+        <v>1099</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>17</v>
@@ -1086,15 +1087,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1113,7 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="3"/>
-        <v>5395</v>
+        <v>6576</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>17</v>
@@ -1138,7 +1139,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
@@ -1157,7 +1158,7 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="3"/>
-        <v>2996</v>
+        <v>664</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>17</v>
@@ -1183,7 +1184,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="3"/>
-        <v>719</v>
+        <v>6038</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>17</v>
@@ -1228,7 +1229,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>16</v>
@@ -1247,7 +1248,7 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="3"/>
-        <v>6831</v>
+        <v>4780</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>17</v>
@@ -1266,14 +1267,14 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>16</v>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="3"/>
-        <v>6204</v>
+        <v>6857</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>17</v>
@@ -1311,14 +1312,14 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>16</v>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="3"/>
-        <v>3247</v>
+        <v>5810</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>17</v>
@@ -1356,14 +1357,14 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>16</v>
@@ -1382,7 +1383,7 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>3178</v>
+        <v>2123</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>17</v>
@@ -1401,14 +1402,14 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -1427,7 +1428,7 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>6126</v>
+        <v>6360</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>17</v>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1472,7 +1473,7 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>1085</v>
+        <v>1770</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>17</v>
@@ -1491,14 +1492,14 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>16</v>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="3"/>
-        <v>616</v>
+        <v>4102</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>17</v>
@@ -1543,7 +1544,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>16</v>
@@ -1562,7 +1563,7 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
-        <v>2531</v>
+        <v>3508</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>17</v>
@@ -1581,14 +1582,14 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>16</v>
@@ -1607,7 +1608,7 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="3"/>
-        <v>5181</v>
+        <v>5162</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>17</v>
@@ -1626,14 +1627,14 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>16</v>
@@ -1652,7 +1653,7 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="3"/>
-        <v>1513</v>
+        <v>3995</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>17</v>
@@ -1671,14 +1672,14 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>16</v>
@@ -1697,7 +1698,7 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="3"/>
-        <v>1511</v>
+        <v>2896</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>17</v>
@@ -1716,14 +1717,14 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1742,7 +1743,7 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="3"/>
-        <v>5116</v>
+        <v>1092</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>17</v>
@@ -1761,7 +1762,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1787,7 +1788,7 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="3"/>
-        <v>6516</v>
+        <v>1749</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>17</v>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1832,7 +1833,7 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="3"/>
-        <v>3489</v>
+        <v>4331</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>17</v>
@@ -1851,7 +1852,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1877,7 +1878,7 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="3"/>
-        <v>5919</v>
+        <v>1611</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>17</v>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1922,7 +1923,7 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="3"/>
-        <v>1732</v>
+        <v>1985</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>17</v>
@@ -1941,14 +1942,14 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>16</v>
@@ -1967,7 +1968,7 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="3"/>
-        <v>2318</v>
+        <v>5124</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>17</v>
@@ -1986,14 +1987,14 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>16</v>
@@ -2012,7 +2013,7 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="3"/>
-        <v>6468</v>
+        <v>4907</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>17</v>
@@ -2038,7 +2039,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>16</v>
@@ -2057,7 +2058,7 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="3"/>
-        <v>5935</v>
+        <v>1834</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>17</v>
@@ -2076,14 +2077,14 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>16</v>
@@ -2102,7 +2103,7 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="3"/>
-        <v>5590</v>
+        <v>3970</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>17</v>
@@ -2121,14 +2122,14 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
@@ -2147,7 +2148,7 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="3"/>
-        <v>707</v>
+        <v>3018</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>17</v>
@@ -2173,7 +2174,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>16</v>
@@ -2192,7 +2193,7 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="3"/>
-        <v>1298</v>
+        <v>3625</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>17</v>
@@ -2211,7 +2212,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -2237,7 +2238,7 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="3"/>
-        <v>5387</v>
+        <v>5288</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>17</v>
@@ -2256,14 +2257,14 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>16</v>
@@ -2282,7 +2283,7 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="3"/>
-        <v>2718</v>
+        <v>5659</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>17</v>
@@ -2301,7 +2302,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -2327,7 +2328,7 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="3"/>
-        <v>6489</v>
+        <v>1969</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>17</v>
@@ -2353,7 +2354,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>16</v>
@@ -2372,7 +2373,7 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="3"/>
-        <v>6104</v>
+        <v>740</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>17</v>
@@ -2391,15 +2392,15 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H36" s="3" t="s">
         <v>16</v>
       </c>
@@ -2417,7 +2418,7 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="3"/>
-        <v>5233</v>
+        <v>6322</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>17</v>
@@ -2436,14 +2437,14 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>16</v>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="3"/>
-        <v>4648</v>
+        <v>2693</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>17</v>
@@ -2488,7 +2489,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>16</v>
@@ -2507,7 +2508,7 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="3"/>
-        <v>2888</v>
+        <v>6811</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>17</v>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2552,7 +2553,7 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="3"/>
-        <v>4077</v>
+        <v>2265</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>17</v>
@@ -2571,15 +2572,15 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
       <c r="H40" s="3" t="s">
         <v>16</v>
       </c>
@@ -2597,7 +2598,7 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="3"/>
-        <v>3440</v>
+        <v>907</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>17</v>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -2642,7 +2643,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="3"/>
-        <v>3580</v>
+        <v>4957</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>17</v>
@@ -2661,15 +2662,15 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2687,7 +2688,7 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="3"/>
-        <v>6449</v>
+        <v>4665</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>17</v>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -2732,7 +2733,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="3"/>
-        <v>2490</v>
+        <v>3217</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>17</v>
@@ -2751,15 +2752,15 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2777,7 +2778,7 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="3"/>
-        <v>6570</v>
+        <v>3080</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>17</v>
@@ -2796,14 +2797,14 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
@@ -2822,7 +2823,7 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="3"/>
-        <v>4796</v>
+        <v>3336</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>17</v>
@@ -2841,14 +2842,14 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
@@ -2867,7 +2868,7 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="3"/>
-        <v>6246</v>
+        <v>1534</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>17</v>
@@ -2886,14 +2887,14 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -2912,7 +2913,7 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="3"/>
-        <v>1768</v>
+        <v>1395</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>17</v>
@@ -2931,7 +2932,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="3"/>
-        <v>3491</v>
+        <v>3766</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>17</v>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -3002,7 +3003,7 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="3"/>
-        <v>832</v>
+        <v>1617</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>17</v>
@@ -3028,7 +3029,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>16</v>
@@ -3047,7 +3048,7 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="3"/>
-        <v>1741</v>
+        <v>4987</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>17</v>
@@ -3066,14 +3067,14 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>16</v>
@@ -3092,7 +3093,7 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="3"/>
-        <v>6005</v>
+        <v>6291</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>17</v>
@@ -3111,7 +3112,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -3137,7 +3138,7 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="3"/>
-        <v>6939</v>
+        <v>6043</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>17</v>
@@ -3163,7 +3164,7 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>16</v>
@@ -3182,7 +3183,7 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="3"/>
-        <v>5198</v>
+        <v>1374</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>17</v>
@@ -3201,15 +3202,15 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3227,7 +3228,7 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="3"/>
-        <v>3452</v>
+        <v>3738</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>17</v>
@@ -3246,14 +3247,14 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>16</v>
@@ -3272,7 +3273,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="3"/>
-        <v>1754</v>
+        <v>3401</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>17</v>
@@ -3291,14 +3292,14 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>16</v>
@@ -3317,7 +3318,7 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="3"/>
-        <v>3841</v>
+        <v>1146</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>17</v>
@@ -3336,15 +3337,15 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3362,7 +3363,7 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="3"/>
-        <v>2768</v>
+        <v>617</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>17</v>
@@ -3381,14 +3382,14 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -3407,7 +3408,7 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="3"/>
-        <v>6597</v>
+        <v>616</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>17</v>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -3452,7 +3453,7 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="3"/>
-        <v>4604</v>
+        <v>3764</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>17</v>
@@ -3471,14 +3472,14 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
@@ -3497,7 +3498,7 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="3"/>
-        <v>816</v>
+        <v>6686</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>17</v>
@@ -3516,14 +3517,14 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>16</v>
@@ -3542,7 +3543,7 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="3"/>
-        <v>5885</v>
+        <v>5062</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>17</v>
@@ -3561,14 +3562,14 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
@@ -3587,7 +3588,7 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="3"/>
-        <v>3312</v>
+        <v>3089</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>17</v>
@@ -3606,14 +3607,14 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>16</v>
@@ -3632,7 +3633,7 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="3"/>
-        <v>5928</v>
+        <v>5761</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>17</v>
@@ -3651,14 +3652,14 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>16</v>
@@ -3677,7 +3678,7 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="3"/>
-        <v>3775</v>
+        <v>2605</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>17</v>
@@ -3696,14 +3697,14 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>16</v>
@@ -3722,7 +3723,7 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="3"/>
-        <v>6954</v>
+        <v>6536</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>17</v>
@@ -3741,14 +3742,14 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
@@ -3767,7 +3768,7 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="3"/>
-        <v>6045</v>
+        <v>805</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>17</v>
@@ -3811,8 +3812,8 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N109" ca="1" si="7">RANDBETWEEN(500,7000)</f>
-        <v>3042</v>
+        <f t="shared" ref="N67:N108" ca="1" si="7">RANDBETWEEN(500,7000)</f>
+        <v>1447</v>
       </c>
       <c r="O67" s="3" t="s">
         <v>17</v>
@@ -3831,14 +3832,14 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>16</v>
@@ -3857,7 +3858,7 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="7"/>
-        <v>2520</v>
+        <v>3032</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>17</v>
@@ -3876,14 +3877,14 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>16</v>
@@ -3902,7 +3903,7 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="7"/>
-        <v>5309</v>
+        <v>1052</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>17</v>
@@ -3921,7 +3922,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -3947,7 +3948,7 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="7"/>
-        <v>3259</v>
+        <v>4979</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>17</v>
@@ -3966,14 +3967,14 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>16</v>
@@ -3992,7 +3993,7 @@
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="7"/>
-        <v>6651</v>
+        <v>6446</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>17</v>
@@ -4011,14 +4012,14 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
@@ -4037,7 +4038,7 @@
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="7"/>
-        <v>5512</v>
+        <v>4878</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>17</v>
@@ -4056,14 +4057,14 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>16</v>
@@ -4082,7 +4083,7 @@
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="7"/>
-        <v>6305</v>
+        <v>4305</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>17</v>
@@ -4101,14 +4102,14 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>16</v>
@@ -4127,7 +4128,7 @@
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="7"/>
-        <v>5765</v>
+        <v>1271</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>17</v>
@@ -4146,14 +4147,14 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>16</v>
@@ -4172,7 +4173,7 @@
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="7"/>
-        <v>5973</v>
+        <v>1626</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>17</v>
@@ -4191,7 +4192,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -4217,7 +4218,7 @@
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="7"/>
-        <v>5347</v>
+        <v>1360</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>17</v>
@@ -4236,14 +4237,14 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>16</v>
@@ -4262,7 +4263,7 @@
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="7"/>
-        <v>2746</v>
+        <v>2303</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>17</v>
@@ -4281,14 +4282,14 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>16</v>
@@ -4307,7 +4308,7 @@
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="7"/>
-        <v>830</v>
+        <v>1975</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>17</v>
@@ -4326,14 +4327,14 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>16</v>
@@ -4352,7 +4353,7 @@
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="7"/>
-        <v>1881</v>
+        <v>4287</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>17</v>
@@ -4371,14 +4372,14 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>16</v>
@@ -4397,7 +4398,7 @@
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="7"/>
-        <v>5497</v>
+        <v>6349</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>17</v>
@@ -4416,14 +4417,14 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>16</v>
@@ -4442,7 +4443,7 @@
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="7"/>
-        <v>1346</v>
+        <v>3401</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>17</v>
@@ -4461,14 +4462,14 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>16</v>
@@ -4487,7 +4488,7 @@
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="7"/>
-        <v>4529</v>
+        <v>6061</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>17</v>
@@ -4532,7 +4533,7 @@
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="7"/>
-        <v>4545</v>
+        <v>799</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>17</v>
@@ -4551,14 +4552,14 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>16</v>
@@ -4577,7 +4578,7 @@
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="7"/>
-        <v>1385</v>
+        <v>2426</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>17</v>
@@ -4596,14 +4597,14 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>16</v>
@@ -4622,7 +4623,7 @@
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="7"/>
-        <v>6818</v>
+        <v>3750</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>17</v>
@@ -4641,14 +4642,14 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>16</v>
@@ -4667,7 +4668,7 @@
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="7"/>
-        <v>6916</v>
+        <v>5583</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>17</v>
@@ -4686,14 +4687,14 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>16</v>
@@ -4712,7 +4713,7 @@
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="7"/>
-        <v>6096</v>
+        <v>3647</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>17</v>
@@ -4731,14 +4732,14 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>16</v>
@@ -4757,7 +4758,7 @@
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="7"/>
-        <v>3800</v>
+        <v>1768</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>17</v>
@@ -4776,14 +4777,14 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -4802,7 +4803,7 @@
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="7"/>
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>17</v>
@@ -4821,14 +4822,14 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>16</v>
@@ -4847,7 +4848,7 @@
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="7"/>
-        <v>4333</v>
+        <v>896</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>17</v>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -4892,7 +4893,7 @@
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="7"/>
-        <v>6522</v>
+        <v>4085</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>17</v>
@@ -4911,7 +4912,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
@@ -4937,7 +4938,7 @@
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="7"/>
-        <v>4642</v>
+        <v>6620</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>17</v>
@@ -4956,14 +4957,14 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>16</v>
@@ -4982,7 +4983,7 @@
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="7"/>
-        <v>4170</v>
+        <v>778</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>17</v>
@@ -5001,7 +5002,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -5027,7 +5028,7 @@
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="7"/>
-        <v>532</v>
+        <v>3383</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>17</v>
@@ -5046,14 +5047,14 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>16</v>
@@ -5072,7 +5073,7 @@
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="7"/>
-        <v>1224</v>
+        <v>5070</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>17</v>
@@ -5091,14 +5092,14 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>16</v>
@@ -5117,7 +5118,7 @@
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="7"/>
-        <v>4966</v>
+        <v>1126</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>17</v>
@@ -5136,14 +5137,14 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>16</v>
@@ -5162,7 +5163,7 @@
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="7"/>
-        <v>2528</v>
+        <v>3923</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>17</v>
@@ -5207,7 +5208,7 @@
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="7"/>
-        <v>3344</v>
+        <v>4346</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>17</v>
@@ -5226,14 +5227,14 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>16</v>
@@ -5252,7 +5253,7 @@
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="7"/>
-        <v>667</v>
+        <v>6956</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>17</v>
@@ -5271,14 +5272,14 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
@@ -5297,7 +5298,7 @@
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="7"/>
-        <v>884</v>
+        <v>2857</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>17</v>
@@ -5323,7 +5324,7 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -5342,7 +5343,7 @@
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="7"/>
-        <v>5028</v>
+        <v>6335</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>17</v>
@@ -5361,14 +5362,14 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
@@ -5387,7 +5388,7 @@
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="7"/>
-        <v>2051</v>
+        <v>3993</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>17</v>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -5432,7 +5433,7 @@
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="7"/>
-        <v>6767</v>
+        <v>2744</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>17</v>
@@ -5451,14 +5452,14 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>16</v>
@@ -5477,7 +5478,7 @@
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="7"/>
-        <v>3125</v>
+        <v>2518</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>17</v>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
@@ -5522,7 +5523,7 @@
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="7"/>
-        <v>5115</v>
+        <v>993</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>17</v>
@@ -5541,14 +5542,14 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>16</v>
@@ -5567,7 +5568,7 @@
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="7"/>
-        <v>5390</v>
+        <v>3515</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>17</v>
@@ -5586,14 +5587,14 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>16</v>
@@ -5612,7 +5613,7 @@
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="7"/>
-        <v>5948</v>
+        <v>3756</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>17</v>
@@ -5631,14 +5632,14 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>16</v>
@@ -5657,7 +5658,7 @@
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="7"/>
-        <v>6341</v>
+        <v>6902</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>17</v>

--- a/relatedFiles/other files/services import list.xlsx
+++ b/relatedFiles/other files/services import list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD0D61-30B2-48F6-BFB9-231B1329A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB747ED-2F13-4237-A4E1-3853CF4B269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="190">
   <si>
     <t>title</t>
   </si>
@@ -520,12 +520,6 @@
     <t>Head Message</t>
   </si>
   <si>
-    <t>Hair Colour Pro</t>
-  </si>
-  <si>
-    <t>Facial Pro</t>
-  </si>
-  <si>
     <t>Trimming Services</t>
   </si>
   <si>
@@ -581,6 +575,33 @@
   </si>
   <si>
     <t>Our stylists have exceptional technical skills. We consistently deliver a great cut every day, with any hairstyle. Every stylist is a really talented—with no weak links—we only accepts the best of the best. We hire the best and we encourage on regular education too. We believe there is never nothing else to learn, improve, or implement.</t>
+  </si>
+  <si>
+    <t>Bridal Makeup &amp; Hairstyling</t>
+  </si>
+  <si>
+    <t>DETAN (Face &amp; Neck)</t>
+  </si>
+  <si>
+    <t>Hair Color(men)</t>
+  </si>
+  <si>
+    <t>Hair Colour Pro(men)</t>
+  </si>
+  <si>
+    <t>Facial(men)</t>
+  </si>
+  <si>
+    <t>Facial Pro(men)</t>
+  </si>
+  <si>
+    <t>Manicure(men)</t>
+  </si>
+  <si>
+    <t>Pedicure(men)</t>
+  </si>
+  <si>
+    <t>Threading(men)</t>
   </si>
 </sst>
 </file>
@@ -717,12 +738,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -731,6 +746,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F96" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,18 +1069,19 @@
     <col min="1" max="1" width="5.140625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="15" width="15.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="83.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -1128,7 +1150,7 @@
         <v>hair-cut</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
@@ -1142,22 +1164,22 @@
       <c r="H2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1166,7 +1188,7 @@
       <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="8">
         <v>700</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -1182,38 +1204,38 @@
         <v>ironing</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" ca="1" si="2">RANDBETWEEN(2,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="1">
         <v>11</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1222,7 +1244,7 @@
       <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="8">
         <v>499</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -1238,38 +1260,38 @@
         <v>rebonding</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="1">
         <v>11</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -1278,7 +1300,7 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="8">
         <v>4500</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -1294,38 +1316,38 @@
         <v>hair-wash-dry</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="11" t="s">
         <v>147</v>
       </c>
       <c r="L5" s="1">
         <v>11</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1334,7 +1356,7 @@
       <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="8">
         <v>300</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -1350,38 +1372,38 @@
         <v>hair-spa</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="1">
         <v>11</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -1390,7 +1412,7 @@
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="8">
         <v>1800</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1406,11 +1428,11 @@
         <v>hair-oil-massage</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -1422,22 +1444,22 @@
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="11" t="s">
         <v>148</v>
       </c>
       <c r="L7" s="1">
         <v>11</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -1446,7 +1468,7 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="8">
         <v>750</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -1462,38 +1484,38 @@
         <v>permanent-hair-straight</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="1">
         <v>11</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -1502,7 +1524,7 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="8">
         <v>4500</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -1518,38 +1540,38 @@
         <v>permanent-hair-curl</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="11" t="s">
         <v>149</v>
       </c>
       <c r="L9" s="1">
         <v>11</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O9" s="2" t="s">
@@ -1558,7 +1580,7 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="8">
         <v>2999</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -1574,38 +1596,38 @@
         <v>hair-extension</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="11" t="s">
         <v>150</v>
       </c>
       <c r="L10" s="1">
         <v>11</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -1614,7 +1636,7 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="8">
         <v>2000</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -1630,11 +1652,11 @@
         <v>hair-colour</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -1646,22 +1668,22 @@
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="L11" s="1">
         <v>11</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -1670,7 +1692,7 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="8">
         <v>3500</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -1686,38 +1708,38 @@
         <v>hair-highlight</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="1">
         <v>11</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -1726,7 +1748,7 @@
       <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="8">
         <v>3999</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -1742,7 +1764,7 @@
         <v>hair-treatment</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1758,22 +1780,22 @@
       <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="1">
         <v>11</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -1782,7 +1804,7 @@
       <c r="P13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="8">
         <v>1999</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -1798,38 +1820,38 @@
         <v>manicure</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="L14" s="1">
         <v>11</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N14" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -1838,7 +1860,7 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="8">
         <v>1400</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -1854,7 +1876,7 @@
         <v>pedicure</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1865,27 +1887,27 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="1">
         <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -1894,7 +1916,7 @@
       <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="8">
         <v>1999</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -1910,38 +1932,38 @@
         <v>foot-massage</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="1">
         <v>11</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -1950,7 +1972,7 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="8">
         <v>799</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -1966,38 +1988,38 @@
         <v>bleach-arms-legs</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="11" t="s">
         <v>151</v>
       </c>
       <c r="L17" s="1">
         <v>11</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -2006,7 +2028,7 @@
       <c r="P17" s="1">
         <v>1</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="8">
         <v>1999</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -2022,38 +2044,38 @@
         <v>detan-arms-legs</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="11" t="s">
         <v>152</v>
       </c>
       <c r="L18" s="1">
         <v>11</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -2062,7 +2084,7 @@
       <c r="P18" s="1">
         <v>1</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="8">
         <v>2800</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -2078,38 +2100,38 @@
         <v>under-arm-waxing</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="11" t="s">
         <v>153</v>
       </c>
       <c r="L19" s="1">
         <v>11</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N19" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -2118,7 +2140,7 @@
       <c r="P19" s="1">
         <v>1</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="8">
         <v>250</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -2134,38 +2156,38 @@
         <v>half-arm-waxing</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="11" t="s">
         <v>153</v>
       </c>
       <c r="L20" s="1">
         <v>11</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O20" s="2" t="s">
@@ -2174,7 +2196,7 @@
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="8">
         <v>550</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -2190,38 +2212,38 @@
         <v>full-arm-waxing</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="11" t="s">
         <v>153</v>
       </c>
       <c r="L21" s="1">
         <v>11</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N21" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O21" s="2" t="s">
@@ -2230,7 +2252,7 @@
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="8">
         <v>999</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -2246,7 +2268,7 @@
         <v>half-leg-waxing</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2262,22 +2284,22 @@
       <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="11" t="s">
         <v>154</v>
       </c>
       <c r="L22" s="1">
         <v>11</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N22" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -2286,7 +2308,7 @@
       <c r="P22" s="1">
         <v>1</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="8">
         <v>650</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -2302,38 +2324,38 @@
         <v>full-leg-waxing</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="11" t="s">
         <v>154</v>
       </c>
       <c r="L23" s="1">
         <v>11</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -2342,7 +2364,7 @@
       <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="8">
         <v>1200</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -2358,38 +2380,38 @@
         <v>full-body-waxing</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="11" t="s">
         <v>155</v>
       </c>
       <c r="L24" s="1">
         <v>11</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N24" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -2398,7 +2420,7 @@
       <c r="P24" s="1">
         <v>1</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="8">
         <v>2999</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -2414,38 +2436,38 @@
         <v>bikini-waxing</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="11" t="s">
         <v>155</v>
       </c>
       <c r="L25" s="1">
         <v>11</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -2454,7 +2476,7 @@
       <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="8">
         <v>1999</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -2470,38 +2492,38 @@
         <v>lower-lip-threading</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="11" t="s">
         <v>156</v>
       </c>
       <c r="L26" s="1">
         <v>11</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -2510,7 +2532,7 @@
       <c r="P26" s="1">
         <v>1</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="8">
         <v>75</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -2526,11 +2548,11 @@
         <v>upper-lip-threading</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>16</v>
@@ -2542,22 +2564,22 @@
       <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="11" t="s">
         <v>156</v>
       </c>
       <c r="L27" s="1">
         <v>11</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N27" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -2566,7 +2588,7 @@
       <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="8">
         <v>75</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -2582,38 +2604,38 @@
         <v>chinjawline-threading</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="11" t="s">
         <v>156</v>
       </c>
       <c r="L28" s="1">
         <v>11</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -2622,7 +2644,7 @@
       <c r="P28" s="1">
         <v>1</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="8">
         <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -2638,7 +2660,7 @@
         <v>eyebrowsâ threading</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2654,22 +2676,22 @@
       <c r="H29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="11" t="s">
         <v>156</v>
       </c>
       <c r="L29" s="1">
         <v>11</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N29" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -2678,7 +2700,7 @@
       <c r="P29" s="1">
         <v>1</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="8">
         <v>150</v>
       </c>
       <c r="R29" s="2" t="s">
@@ -2694,38 +2716,38 @@
         <v>forehead-threading</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="11" t="s">
         <v>156</v>
       </c>
       <c r="L30" s="1">
         <v>11</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N30" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -2734,7 +2756,7 @@
       <c r="P30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="8">
         <v>150</v>
       </c>
       <c r="R30" s="2" t="s">
@@ -2750,7 +2772,7 @@
         <v>bleach-face-neck-</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2761,27 +2783,27 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>151</v>
+      <c r="K31" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="L31" s="1">
         <v>11</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -2790,7 +2812,7 @@
       <c r="P31" s="1">
         <v>1</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="8">
         <v>800</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -2806,7 +2828,7 @@
         <v>detan-face-and-neck</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2817,27 +2839,27 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>152</v>
+      <c r="K32" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="L32" s="1">
         <v>11</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N32" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -2846,7 +2868,7 @@
       <c r="P32" s="1">
         <v>1</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="8">
         <v>999</v>
       </c>
       <c r="R32" s="2" t="s">
@@ -2862,38 +2884,38 @@
         <v>facial</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="11" t="s">
         <v>152</v>
       </c>
       <c r="L33" s="1">
         <v>11</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N33" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N33" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -2902,7 +2924,7 @@
       <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="8">
         <v>1500</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -2918,38 +2940,38 @@
         <v>anit-ageing-facial</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="11" t="s">
         <v>49</v>
       </c>
       <c r="L34" s="1">
         <v>11</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -2958,7 +2980,7 @@
       <c r="P34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="8">
         <v>2999</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -2974,38 +2996,38 @@
         <v>men-hair-cut</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="11" t="s">
         <v>157</v>
       </c>
       <c r="L35" s="1">
         <v>11</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N35" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -3014,7 +3036,7 @@
       <c r="P35" s="1">
         <v>1</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="8">
         <v>500</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -3030,7 +3052,7 @@
         <v>men-shave</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3046,22 +3068,22 @@
       <c r="H36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="11" t="s">
         <v>158</v>
       </c>
       <c r="L36" s="1">
         <v>11</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N36" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N36" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -3070,7 +3092,7 @@
       <c r="P36" s="1">
         <v>1</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="8">
         <v>250</v>
       </c>
       <c r="R36" s="2" t="s">
@@ -3086,38 +3108,38 @@
         <v>men-beard-trim</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="11" t="s">
         <v>159</v>
       </c>
       <c r="L37" s="1">
         <v>11</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N37" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N37" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -3126,7 +3148,7 @@
       <c r="P37" s="1">
         <v>1</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="8">
         <v>200</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -3142,38 +3164,38 @@
         <v>men-moustache-trim</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="11" t="s">
         <v>160</v>
       </c>
       <c r="L38" s="1">
         <v>11</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N38" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -3182,7 +3204,7 @@
       <c r="P38" s="1">
         <v>1</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="8">
         <v>100</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -3198,38 +3220,38 @@
         <v>men-head-massage</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="11" t="s">
         <v>161</v>
       </c>
       <c r="L39" s="1">
         <v>11</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N39" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N39" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -3238,7 +3260,7 @@
       <c r="P39" s="1">
         <v>1</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="8">
         <v>300</v>
       </c>
       <c r="R39" s="2" t="s">
@@ -3254,11 +3276,11 @@
         <v>men-hair-color</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -3270,22 +3292,22 @@
       <c r="H40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>27</v>
+      <c r="K40" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="L40" s="1">
         <v>11</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N40" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -3294,7 +3316,7 @@
       <c r="P40" s="1">
         <v>1</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="8">
         <v>1200</v>
       </c>
       <c r="R40" s="2" t="s">
@@ -3310,38 +3332,38 @@
         <v>men-hair-color-pro</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>162</v>
+      <c r="K41" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="L41" s="1">
         <v>11</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N41" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N41" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -3350,7 +3372,7 @@
       <c r="P41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="8">
         <v>1999</v>
       </c>
       <c r="R41" s="2" t="s">
@@ -3366,7 +3388,7 @@
         <v>men-facial</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3377,27 +3399,27 @@
       </c>
       <c r="G42" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>49</v>
+      <c r="K42" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="L42" s="1">
         <v>11</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N42" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N42" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -3406,7 +3428,7 @@
       <c r="P42" s="1">
         <v>1</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="8">
         <v>1000</v>
       </c>
       <c r="R42" s="2" t="s">
@@ -3422,38 +3444,38 @@
         <v>men-facial-pro</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>163</v>
+      <c r="K43" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="L43" s="1">
         <v>11</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -3462,7 +3484,7 @@
       <c r="P43" s="1">
         <v>1</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="8">
         <v>1999</v>
       </c>
       <c r="R43" s="2" t="s">
@@ -3478,38 +3500,38 @@
         <v>manicure-for-men</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>30</v>
+      <c r="K44" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="L44" s="1">
         <v>11</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N44" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O44" s="2" t="s">
@@ -3518,7 +3540,7 @@
       <c r="P44" s="1">
         <v>1</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="8">
         <v>1400</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -3534,38 +3556,38 @@
         <v>pedicure-for-men</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K45" s="8" t="s">
-        <v>31</v>
+      <c r="K45" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="L45" s="1">
         <v>11</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N45" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -3574,7 +3596,7 @@
       <c r="P45" s="1">
         <v>1</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="8">
         <v>1999</v>
       </c>
       <c r="R45" s="2" t="s">
@@ -3590,38 +3612,38 @@
         <v>men-eyebrow-threading</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>156</v>
+      <c r="K46" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="L46" s="1">
         <v>11</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N46" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N46" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O46" s="2" t="s">
@@ -3630,7 +3652,7 @@
       <c r="P46" s="1">
         <v>1</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="8">
         <v>150</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -3646,11 +3668,11 @@
         <v>men-chest-trimming</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>16</v>
@@ -3662,22 +3684,22 @@
       <c r="H47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>20</v>
+      <c r="K47" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="L47" s="1">
         <v>11</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N47" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N47" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O47" s="2" t="s">
@@ -3686,7 +3708,7 @@
       <c r="P47" s="1">
         <v>1</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="Q47" s="8">
         <v>500</v>
       </c>
       <c r="R47" s="2" t="s">
@@ -3702,7 +3724,7 @@
         <v>men-back-trimming</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3713,27 +3735,27 @@
       </c>
       <c r="G48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>20</v>
+      <c r="K48" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="L48" s="1">
         <v>11</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N48" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -3742,7 +3764,7 @@
       <c r="P48" s="1">
         <v>1</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="8">
         <v>500</v>
       </c>
       <c r="R48" s="2" t="s">
@@ -3758,7 +3780,7 @@
         <v>men-arms-trimming</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3769,27 +3791,27 @@
       </c>
       <c r="G49" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>164</v>
+      <c r="K49" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="L49" s="1">
         <v>11</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N49" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N49" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O49" s="2" t="s">
@@ -3798,7 +3820,7 @@
       <c r="P49" s="1">
         <v>1</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q49" s="8">
         <v>400</v>
       </c>
       <c r="R49" s="2" t="s">
@@ -3814,38 +3836,38 @@
         <v>men-under-arm-trimming</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>164</v>
+      <c r="K50" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="L50" s="1">
         <v>11</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N50" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N50" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O50" s="2" t="s">
@@ -3854,7 +3876,7 @@
       <c r="P50" s="1">
         <v>1</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="Q50" s="8">
         <v>150</v>
       </c>
       <c r="R50" s="2" t="s">
@@ -3870,7 +3892,7 @@
         <v>men-legs-trimming</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3886,22 +3908,22 @@
       <c r="H51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>164</v>
+      <c r="K51" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="L51" s="1">
         <v>11</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N51" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N51" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -3910,7 +3932,7 @@
       <c r="P51" s="1">
         <v>1</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q51" s="8">
         <v>750</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -3926,7 +3948,7 @@
         <v>men-eyebrowsâ wax</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3937,27 +3959,27 @@
       </c>
       <c r="G52" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>165</v>
+      <c r="K52" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L52" s="1">
         <v>11</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N52" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N52" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O52" s="2" t="s">
@@ -3966,7 +3988,7 @@
       <c r="P52" s="1">
         <v>1</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="Q52" s="8">
         <v>200</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -3982,7 +4004,7 @@
         <v>men-in-between-brows-wax</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3993,27 +4015,27 @@
       </c>
       <c r="G53" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K53" s="8" t="s">
-        <v>165</v>
+      <c r="K53" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L53" s="1">
         <v>11</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N53" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N53" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O53" s="2" t="s">
@@ -4022,7 +4044,7 @@
       <c r="P53" s="1">
         <v>1</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="Q53" s="8">
         <v>100</v>
       </c>
       <c r="R53" s="2" t="s">
@@ -4038,7 +4060,7 @@
         <v>men-earnose-wax</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -4049,27 +4071,27 @@
       </c>
       <c r="G54" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K54" s="8" t="s">
-        <v>165</v>
+      <c r="K54" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L54" s="1">
         <v>11</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N54" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N54" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O54" s="2" t="s">
@@ -4078,7 +4100,7 @@
       <c r="P54" s="1">
         <v>1</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q54" s="8">
         <v>200</v>
       </c>
       <c r="R54" s="2" t="s">
@@ -4094,7 +4116,7 @@
         <v>men-neck-waxing</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -4110,22 +4132,22 @@
       <c r="H55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K55" s="8" t="s">
-        <v>165</v>
+      <c r="K55" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L55" s="1">
         <v>11</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N55" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N55" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O55" s="2" t="s">
@@ -4134,7 +4156,7 @@
       <c r="P55" s="1">
         <v>1</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="Q55" s="8">
         <v>250</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -4150,11 +4172,11 @@
         <v>men-chest-waxing</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>16</v>
@@ -4166,22 +4188,22 @@
       <c r="H56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>165</v>
+      <c r="K56" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L56" s="1">
         <v>11</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N56" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N56" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O56" s="2" t="s">
@@ -4190,7 +4212,7 @@
       <c r="P56" s="1">
         <v>1</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q56" s="8">
         <v>1250</v>
       </c>
       <c r="R56" s="2" t="s">
@@ -4206,7 +4228,7 @@
         <v>men-back-waxing</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -4222,22 +4244,22 @@
       <c r="H57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>165</v>
+      <c r="K57" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L57" s="1">
         <v>11</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N57" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N57" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O57" s="2" t="s">
@@ -4246,7 +4268,7 @@
       <c r="P57" s="1">
         <v>1</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="Q57" s="8">
         <v>1250</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -4262,38 +4284,38 @@
         <v>men-arms-waxing</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>165</v>
+      <c r="K58" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L58" s="1">
         <v>11</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N58" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N58" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O58" s="2" t="s">
@@ -4302,7 +4324,7 @@
       <c r="P58" s="1">
         <v>1</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="8">
         <v>1000</v>
       </c>
       <c r="R58" s="2" t="s">
@@ -4318,38 +4340,38 @@
         <v>men-under-arm-waxing</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>165</v>
+      <c r="K59" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L59" s="1">
         <v>11</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N59" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N59" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O59" s="2" t="s">
@@ -4358,7 +4380,7 @@
       <c r="P59" s="1">
         <v>1</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="8">
         <v>300</v>
       </c>
       <c r="R59" s="2" t="s">
@@ -4374,38 +4396,38 @@
         <v>men-legs-waxing</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>165</v>
+      <c r="K60" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L60" s="1">
         <v>11</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N60" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N60" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O60" s="2" t="s">
@@ -4414,7 +4436,7 @@
       <c r="P60" s="1">
         <v>1</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q60" s="8">
         <v>1250</v>
       </c>
       <c r="R60" s="2" t="s">
@@ -4430,38 +4452,38 @@
         <v>men-full-body-waxing</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>165</v>
+      <c r="K61" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L61" s="1">
         <v>11</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N61" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N61" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O61" s="2" t="s">
@@ -4470,7 +4492,7 @@
       <c r="P61" s="1">
         <v>1</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q61" s="8">
         <v>3999</v>
       </c>
       <c r="R61" s="2" t="s">
@@ -4486,38 +4508,38 @@
         <v>event-makeup</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="11" t="s">
         <v>78</v>
       </c>
       <c r="L62" s="1">
         <v>11</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N62" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N62" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O62" s="2" t="s">
@@ -4526,7 +4548,7 @@
       <c r="P62" s="1">
         <v>1</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q62" s="8">
         <v>2500</v>
       </c>
       <c r="R62" s="2" t="s">
@@ -4542,38 +4564,38 @@
         <v>party-makeup</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="11" t="s">
         <v>79</v>
       </c>
       <c r="L63" s="1">
         <v>11</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N63" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N63" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O63" s="2" t="s">
@@ -4582,7 +4604,7 @@
       <c r="P63" s="1">
         <v>1</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="Q63" s="8">
         <v>2999</v>
       </c>
       <c r="R63" s="2" t="s">
@@ -4598,11 +4620,11 @@
         <v>light-makeup</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>16</v>
@@ -4614,22 +4636,22 @@
       <c r="H64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L64" s="1">
         <v>11</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N64" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N64" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O64" s="2" t="s">
@@ -4638,7 +4660,7 @@
       <c r="P64" s="1">
         <v>1</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="8">
         <v>2000</v>
       </c>
       <c r="R64" s="2" t="s">
@@ -4654,7 +4676,7 @@
         <v>photoshoot-makeup</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -4665,27 +4687,27 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="11" t="s">
         <v>80</v>
       </c>
       <c r="L65" s="1">
         <v>11</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N65" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N65" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O65" s="2" t="s">
@@ -4694,7 +4716,7 @@
       <c r="P65" s="1">
         <v>1</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="Q65" s="8">
         <v>4500</v>
       </c>
       <c r="R65" s="2" t="s">
@@ -4710,11 +4732,11 @@
         <v>event-hairstyling</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>16</v>
@@ -4726,22 +4748,22 @@
       <c r="H66" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="11" t="s">
         <v>81</v>
       </c>
       <c r="L66" s="1">
         <v>11</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N66" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N66" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O66" s="2" t="s">
@@ -4750,7 +4772,7 @@
       <c r="P66" s="1">
         <v>1</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="Q66" s="8">
         <v>1500</v>
       </c>
       <c r="R66" s="2" t="s">
@@ -4766,38 +4788,38 @@
         <v>party-hairstyling</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" ref="E67:E108" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G108" ca="1" si="5">RANDBETWEEN(2,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="11" t="s">
         <v>82</v>
       </c>
       <c r="L67" s="1">
         <v>11</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N67" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N67" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O67" s="2" t="s">
@@ -4806,7 +4828,7 @@
       <c r="P67" s="1">
         <v>1</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="8">
         <v>1300</v>
       </c>
       <c r="R67" s="2" t="s">
@@ -4822,38 +4844,38 @@
         <v>makeup-hairstyling-photoshoot-package</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J68" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>166</v>
+      <c r="J68" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="L68" s="1">
         <v>11</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N68" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N68" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O68" s="2" t="s">
@@ -4862,7 +4884,7 @@
       <c r="P68" s="1">
         <v>1</v>
       </c>
-      <c r="Q68" s="10">
+      <c r="Q68" s="8">
         <v>5000</v>
       </c>
       <c r="R68" s="2" t="s">
@@ -4878,38 +4900,38 @@
         <v>engagement-hairstyling</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K69" s="8" t="s">
+      <c r="J69" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K69" s="11" t="s">
         <v>84</v>
       </c>
       <c r="L69" s="1">
         <v>11</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N69" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N69" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O69" s="2" t="s">
@@ -4918,7 +4940,7 @@
       <c r="P69" s="1">
         <v>1</v>
       </c>
-      <c r="Q69" s="10">
+      <c r="Q69" s="8">
         <v>1500</v>
       </c>
       <c r="R69" s="2" t="s">
@@ -4934,11 +4956,11 @@
         <v>bridal-hairstyling</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>16</v>
@@ -4950,22 +4972,22 @@
       <c r="H70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K70" s="8" t="s">
+      <c r="J70" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K70" s="11" t="s">
         <v>85</v>
       </c>
       <c r="L70" s="1">
         <v>11</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N70" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N70" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O70" s="2" t="s">
@@ -4974,7 +4996,7 @@
       <c r="P70" s="1">
         <v>1</v>
       </c>
-      <c r="Q70" s="10">
+      <c r="Q70" s="8">
         <v>2000</v>
       </c>
       <c r="R70" s="2" t="s">
@@ -4990,38 +5012,38 @@
         <v>reception-hairstyling</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J71" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K71" s="8" t="s">
+      <c r="J71" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K71" s="11" t="s">
         <v>86</v>
       </c>
       <c r="L71" s="1">
         <v>11</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N71" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O71" s="2" t="s">
@@ -5030,7 +5052,7 @@
       <c r="P71" s="1">
         <v>1</v>
       </c>
-      <c r="Q71" s="10">
+      <c r="Q71" s="8">
         <v>1800</v>
       </c>
       <c r="R71" s="2" t="s">
@@ -5046,38 +5068,38 @@
         <v>bridal-makeup</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J72" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K72" s="8" t="s">
+      <c r="J72" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K72" s="11" t="s">
         <v>87</v>
       </c>
       <c r="L72" s="1">
         <v>11</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N72" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N72" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O72" s="2" t="s">
@@ -5086,7 +5108,7 @@
       <c r="P72" s="1">
         <v>1</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="Q72" s="8">
         <v>12500</v>
       </c>
       <c r="R72" s="2" t="s">
@@ -5102,7 +5124,7 @@
         <v>engagement-makeup</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -5118,22 +5140,22 @@
       <c r="H73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J73" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K73" s="8" t="s">
+      <c r="J73" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>88</v>
       </c>
       <c r="L73" s="1">
         <v>11</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N73" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N73" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O73" s="2" t="s">
@@ -5142,7 +5164,7 @@
       <c r="P73" s="1">
         <v>1</v>
       </c>
-      <c r="Q73" s="10">
+      <c r="Q73" s="8">
         <v>6500</v>
       </c>
       <c r="R73" s="2" t="s">
@@ -5158,7 +5180,7 @@
         <v>reception-makeup</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -5169,27 +5191,27 @@
       </c>
       <c r="G74" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J74" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K74" s="8" t="s">
+      <c r="J74" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K74" s="11" t="s">
         <v>89</v>
       </c>
       <c r="L74" s="1">
         <v>11</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N74" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N74" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O74" s="2" t="s">
@@ -5198,7 +5220,7 @@
       <c r="P74" s="1">
         <v>1</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="Q74" s="8">
         <v>9999</v>
       </c>
       <c r="R74" s="2" t="s">
@@ -5214,11 +5236,11 @@
         <v>pre-wedding-photoshoot-package</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>16</v>
@@ -5230,22 +5252,22 @@
       <c r="H75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K75" s="8" t="s">
-        <v>167</v>
+      <c r="K75" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="L75" s="1">
         <v>11</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N75" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N75" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O75" s="2" t="s">
@@ -5254,7 +5276,7 @@
       <c r="P75" s="1">
         <v>1</v>
       </c>
-      <c r="Q75" s="10">
+      <c r="Q75" s="8">
         <v>5000</v>
       </c>
       <c r="R75" s="2" t="s">
@@ -5270,11 +5292,11 @@
         <v>saree-draping</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>16</v>
@@ -5286,22 +5308,22 @@
       <c r="H76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="K76" s="11" t="s">
         <v>91</v>
       </c>
       <c r="L76" s="1">
         <v>11</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N76" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N76" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O76" s="2" t="s">
@@ -5310,7 +5332,7 @@
       <c r="P76" s="1">
         <v>1</v>
       </c>
-      <c r="Q76" s="10">
+      <c r="Q76" s="8">
         <v>500</v>
       </c>
       <c r="R76" s="2" t="s">
@@ -5326,38 +5348,38 @@
         <v>bridal-dressing</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="11" t="s">
         <v>92</v>
       </c>
       <c r="L77" s="1">
         <v>11</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N77" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N77" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O77" s="2" t="s">
@@ -5366,7 +5388,7 @@
       <c r="P77" s="1">
         <v>1</v>
       </c>
-      <c r="Q77" s="10">
+      <c r="Q77" s="8">
         <v>1000</v>
       </c>
       <c r="R77" s="2" t="s">
@@ -5382,38 +5404,38 @@
         <v>bridal-mehendi</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="11" t="s">
         <v>93</v>
       </c>
       <c r="L78" s="1">
         <v>11</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N78" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N78" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O78" s="2" t="s">
@@ -5422,7 +5444,7 @@
       <c r="P78" s="1">
         <v>1</v>
       </c>
-      <c r="Q78" s="10">
+      <c r="Q78" s="8">
         <v>5000</v>
       </c>
       <c r="R78" s="2" t="s">
@@ -5438,38 +5460,38 @@
         <v>bridal-mehendi-pro</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="11" t="s">
         <v>94</v>
       </c>
       <c r="L79" s="1">
         <v>11</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N79" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N79" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O79" s="2" t="s">
@@ -5478,7 +5500,7 @@
       <c r="P79" s="1">
         <v>1</v>
       </c>
-      <c r="Q79" s="10">
+      <c r="Q79" s="8">
         <v>8000</v>
       </c>
       <c r="R79" s="2" t="s">
@@ -5494,38 +5516,38 @@
         <v>bridal-parties-mehendi-rate-per-person</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K80" s="8" t="s">
-        <v>168</v>
+      <c r="K80" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="L80" s="1">
         <v>11</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N80" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N80" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O80" s="2" t="s">
@@ -5534,7 +5556,7 @@
       <c r="P80" s="1">
         <v>1</v>
       </c>
-      <c r="Q80" s="10">
+      <c r="Q80" s="8">
         <v>1000</v>
       </c>
       <c r="R80" s="2" t="s">
@@ -5550,38 +5572,38 @@
         <v>bridesmaid-makeup-only-per-person</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="K81" s="8" t="s">
-        <v>169</v>
+      <c r="K81" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="L81" s="1">
         <v>11</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N81" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N81" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O81" s="2" t="s">
@@ -5590,7 +5612,7 @@
       <c r="P81" s="1">
         <v>1</v>
       </c>
-      <c r="Q81" s="10">
+      <c r="Q81" s="8">
         <v>1500</v>
       </c>
       <c r="R81" s="2" t="s">
@@ -5606,38 +5628,38 @@
         <v>bridesmaid-hairstyling-only-per-person</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="K82" s="8" t="s">
-        <v>170</v>
+      <c r="K82" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="L82" s="1">
         <v>11</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N82" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N82" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O82" s="2" t="s">
@@ -5646,7 +5668,7 @@
       <c r="P82" s="1">
         <v>1</v>
       </c>
-      <c r="Q82" s="10">
+      <c r="Q82" s="8">
         <v>500</v>
       </c>
       <c r="R82" s="2" t="s">
@@ -5662,38 +5684,38 @@
         <v>bridesmaid-makeup-hairstyling-per-person</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="K83" s="8" t="s">
-        <v>171</v>
+      <c r="K83" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="L83" s="1">
         <v>11</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N83" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N83" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O83" s="2" t="s">
@@ -5702,7 +5724,7 @@
       <c r="P83" s="1">
         <v>1</v>
       </c>
-      <c r="Q83" s="10">
+      <c r="Q83" s="8">
         <v>2000</v>
       </c>
       <c r="R83" s="2" t="s">
@@ -5718,38 +5740,38 @@
         <v>bridesmaid-silver-lining-package</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="11" t="s">
         <v>99</v>
       </c>
       <c r="L84" s="1">
         <v>11</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N84" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N84" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O84" s="2" t="s">
@@ -5758,7 +5780,7 @@
       <c r="P84" s="1">
         <v>1</v>
       </c>
-      <c r="Q84" s="10">
+      <c r="Q84" s="8">
         <v>3000</v>
       </c>
       <c r="R84" s="2" t="s">
@@ -5774,38 +5796,38 @@
         <v>golden-queen-bride</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I85" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K85" s="8" t="s">
-        <v>172</v>
+      <c r="K85" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="L85" s="1">
         <v>11</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N85" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N85" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O85" s="2" t="s">
@@ -5814,7 +5836,7 @@
       <c r="P85" s="1">
         <v>1</v>
       </c>
-      <c r="Q85" s="10">
+      <c r="Q85" s="8">
         <v>16000</v>
       </c>
       <c r="R85" s="2" t="s">
@@ -5830,11 +5852,11 @@
         <v>uncut-diamond-bride</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>16</v>
@@ -5846,22 +5868,22 @@
       <c r="H86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K86" s="8" t="s">
-        <v>173</v>
+      <c r="K86" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="L86" s="1">
         <v>11</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N86" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N86" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O86" s="2" t="s">
@@ -5870,7 +5892,7 @@
       <c r="P86" s="1">
         <v>1</v>
       </c>
-      <c r="Q86" s="10">
+      <c r="Q86" s="8">
         <v>20000</v>
       </c>
       <c r="R86" s="2" t="s">
@@ -5886,38 +5908,38 @@
         <v>platinum-perfect-bride</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J87" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K87" s="8" t="s">
+      <c r="J87" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K87" s="11" t="s">
         <v>102</v>
       </c>
       <c r="L87" s="1">
         <v>11</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N87" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N87" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O87" s="2" t="s">
@@ -5926,7 +5948,7 @@
       <c r="P87" s="1">
         <v>1</v>
       </c>
-      <c r="Q87" s="10">
+      <c r="Q87" s="8">
         <v>24000</v>
       </c>
       <c r="R87" s="2" t="s">
@@ -5942,38 +5964,38 @@
         <v>cut-file-polish-nails</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K88" s="8" t="s">
-        <v>174</v>
+      <c r="K88" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="L88" s="1">
         <v>11</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N88" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N88" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O88" s="2" t="s">
@@ -5982,7 +6004,7 @@
       <c r="P88" s="1">
         <v>1</v>
       </c>
-      <c r="Q88" s="10">
+      <c r="Q88" s="8">
         <v>999</v>
       </c>
       <c r="R88" s="2" t="s">
@@ -5998,38 +6020,38 @@
         <v>nail-art-both-hand</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K89" s="8" t="s">
-        <v>175</v>
+      <c r="K89" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="L89" s="1">
         <v>11</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N89" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N89" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O89" s="2" t="s">
@@ -6038,7 +6060,7 @@
       <c r="P89" s="1">
         <v>1</v>
       </c>
-      <c r="Q89" s="10">
+      <c r="Q89" s="8">
         <v>899</v>
       </c>
       <c r="R89" s="2" t="s">
@@ -6054,38 +6076,38 @@
         <v>nail-extension-per-finger</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K90" s="8" t="s">
-        <v>176</v>
+      <c r="K90" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="L90" s="1">
         <v>11</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N90" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N90" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O90" s="2" t="s">
@@ -6094,7 +6116,7 @@
       <c r="P90" s="1">
         <v>1</v>
       </c>
-      <c r="Q90" s="10">
+      <c r="Q90" s="8">
         <v>300</v>
       </c>
       <c r="R90" s="2" t="s">
@@ -6110,38 +6132,38 @@
         <v>artificial-nail-per-finger</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K91" s="8" t="s">
-        <v>177</v>
+      <c r="K91" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="L91" s="1">
         <v>11</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N91" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N91" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O91" s="2" t="s">
@@ -6150,7 +6172,7 @@
       <c r="P91" s="1">
         <v>1</v>
       </c>
-      <c r="Q91" s="10">
+      <c r="Q91" s="8">
         <v>399</v>
       </c>
       <c r="R91" s="2" t="s">
@@ -6166,7 +6188,7 @@
         <v>full-face-threading</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6177,27 +6199,27 @@
       </c>
       <c r="G92" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="K92" s="11" t="s">
         <v>156</v>
       </c>
       <c r="L92" s="1">
         <v>11</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N92" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N92" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O92" s="2" t="s">
@@ -6206,7 +6228,7 @@
       <c r="P92" s="1">
         <v>1</v>
       </c>
-      <c r="Q92" s="10">
+      <c r="Q92" s="8">
         <v>400</v>
       </c>
       <c r="R92" s="2" t="s">
@@ -6222,38 +6244,38 @@
         <v>bleach-arms</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E93" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="11" t="s">
         <v>151</v>
       </c>
       <c r="L93" s="1">
         <v>11</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N93" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N93" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O93" s="2" t="s">
@@ -6262,7 +6284,7 @@
       <c r="P93" s="1">
         <v>1</v>
       </c>
-      <c r="Q93" s="10">
+      <c r="Q93" s="8">
         <v>999</v>
       </c>
       <c r="R93" s="2" t="s">
@@ -6278,7 +6300,7 @@
         <v>bleach-legs</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E94" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6289,27 +6311,27 @@
       </c>
       <c r="G94" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="K94" s="11" t="s">
         <v>151</v>
       </c>
       <c r="L94" s="1">
         <v>11</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N94" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N94" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O94" s="2" t="s">
@@ -6318,7 +6340,7 @@
       <c r="P94" s="1">
         <v>1</v>
       </c>
-      <c r="Q94" s="10">
+      <c r="Q94" s="8">
         <v>1300</v>
       </c>
       <c r="R94" s="2" t="s">
@@ -6334,7 +6356,7 @@
         <v>whitening-facial</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E95" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6345,27 +6367,27 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J95" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K95" s="8" t="s">
+      <c r="J95" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K95" s="11" t="s">
         <v>110</v>
       </c>
       <c r="L95" s="1">
         <v>11</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N95" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N95" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O95" s="2" t="s">
@@ -6374,7 +6396,7 @@
       <c r="P95" s="1">
         <v>1</v>
       </c>
-      <c r="Q95" s="10">
+      <c r="Q95" s="8">
         <v>2500</v>
       </c>
       <c r="R95" s="2" t="s">
@@ -6390,11 +6412,11 @@
         <v>de-tan-facial</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>16</v>
@@ -6406,22 +6428,22 @@
       <c r="H96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J96" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K96" s="8" t="s">
+      <c r="J96" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K96" s="11" t="s">
         <v>111</v>
       </c>
       <c r="L96" s="1">
         <v>11</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N96" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N96" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O96" s="2" t="s">
@@ -6430,7 +6452,7 @@
       <c r="P96" s="1">
         <v>1</v>
       </c>
-      <c r="Q96" s="10">
+      <c r="Q96" s="8">
         <v>2500</v>
       </c>
       <c r="R96" s="2" t="s">
@@ -6446,38 +6468,38 @@
         <v>face-cleansing</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J97" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>178</v>
+      <c r="J97" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="L97" s="1">
         <v>11</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N97" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N97" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O97" s="2" t="s">
@@ -6486,7 +6508,7 @@
       <c r="P97" s="1">
         <v>1</v>
       </c>
-      <c r="Q97" s="10">
+      <c r="Q97" s="8">
         <v>999</v>
       </c>
       <c r="R97" s="2" t="s">
@@ -6502,11 +6524,11 @@
         <v>nose-cleansing</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E98" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>16</v>
@@ -6518,22 +6540,22 @@
       <c r="H98" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J98" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K98" s="8" t="s">
+      <c r="J98" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K98" s="11" t="s">
         <v>113</v>
       </c>
       <c r="L98" s="1">
         <v>11</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N98" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N98" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O98" s="2" t="s">
@@ -6542,7 +6564,7 @@
       <c r="P98" s="1">
         <v>1</v>
       </c>
-      <c r="Q98" s="10">
+      <c r="Q98" s="8">
         <v>499</v>
       </c>
       <c r="R98" s="2" t="s">
@@ -6558,38 +6580,38 @@
         <v>keratin-hair-treatment</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E99" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I99" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L99" s="1">
         <v>11</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N99" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N99" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O99" s="2" t="s">
@@ -6598,7 +6620,7 @@
       <c r="P99" s="1">
         <v>1</v>
       </c>
-      <c r="Q99" s="10">
+      <c r="Q99" s="8">
         <v>7000</v>
       </c>
       <c r="R99" s="2" t="s">
@@ -6614,38 +6636,38 @@
         <v>nail-art-per-hand</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K100" s="8" t="s">
-        <v>175</v>
+      <c r="K100" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="L100" s="1">
         <v>11</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N100" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N100" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O100" s="2" t="s">
@@ -6654,7 +6676,7 @@
       <c r="P100" s="1">
         <v>1</v>
       </c>
-      <c r="Q100" s="10">
+      <c r="Q100" s="8">
         <v>500</v>
       </c>
       <c r="R100" s="2" t="s">
@@ -6670,38 +6692,38 @@
         <v>fake-nail-per-finger</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>177</v>
+      <c r="K101" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="L101" s="1">
         <v>11</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N101" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N101" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O101" s="2" t="s">
@@ -6710,7 +6732,7 @@
       <c r="P101" s="1">
         <v>1</v>
       </c>
-      <c r="Q101" s="10">
+      <c r="Q101" s="8">
         <v>399</v>
       </c>
       <c r="R101" s="2" t="s">
@@ -6726,38 +6748,38 @@
         <v>groom-silver-package</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" s="11" t="s">
         <v>117</v>
       </c>
       <c r="L102" s="1">
         <v>11</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N102" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N102" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O102" s="2" t="s">
@@ -6766,7 +6788,7 @@
       <c r="P102" s="1">
         <v>1</v>
       </c>
-      <c r="Q102" s="10">
+      <c r="Q102" s="8">
         <v>2500</v>
       </c>
       <c r="R102" s="2" t="s">
@@ -6782,38 +6804,38 @@
         <v>groom-gold-package</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E103" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I103" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K103" s="8" t="s">
-        <v>179</v>
+      <c r="K103" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="L103" s="1">
         <v>11</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N103" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N103" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O103" s="2" t="s">
@@ -6822,7 +6844,7 @@
       <c r="P103" s="1">
         <v>1</v>
       </c>
-      <c r="Q103" s="10">
+      <c r="Q103" s="8">
         <v>8999</v>
       </c>
       <c r="R103" s="2" t="s">
@@ -6838,38 +6860,38 @@
         <v>best-friend-package</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I104" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J104" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="K104" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L104" s="1">
         <v>11</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N104" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N104" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O104" s="2" t="s">
@@ -6878,7 +6900,7 @@
       <c r="P104" s="1">
         <v>1</v>
       </c>
-      <c r="Q104" s="10">
+      <c r="Q104" s="8">
         <v>1500</v>
       </c>
       <c r="R104" s="2" t="s">
@@ -6894,7 +6916,7 @@
         <v>hair-dresser-service</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6910,22 +6932,22 @@
       <c r="H105" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I105" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="J105" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K105" s="8" t="s">
-        <v>180</v>
+      <c r="K105" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="L105" s="1">
         <v>11</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N105" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N105" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O105" s="2" t="s">
@@ -6934,7 +6956,7 @@
       <c r="P105" s="1">
         <v>1</v>
       </c>
-      <c r="Q105" s="10">
+      <c r="Q105" s="8">
         <v>2000</v>
       </c>
       <c r="R105" s="2" t="s">
@@ -6950,38 +6972,38 @@
         <v>hair-colour-grey-to-black</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="11" t="s">
         <v>27</v>
       </c>
       <c r="L106" s="1">
         <v>11</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N106" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N106" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O106" s="2" t="s">
@@ -6990,7 +7012,7 @@
       <c r="P106" s="1">
         <v>1</v>
       </c>
-      <c r="Q106" s="10">
+      <c r="Q106" s="8">
         <v>1200</v>
       </c>
       <c r="R106" s="2" t="s">
@@ -7006,38 +7028,38 @@
         <v>detan-arms</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I107" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J107" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="11" t="s">
         <v>152</v>
       </c>
       <c r="L107" s="1">
         <v>11</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N107" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N107" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O107" s="2" t="s">
@@ -7046,7 +7068,7 @@
       <c r="P107" s="1">
         <v>1</v>
       </c>
-      <c r="Q107" s="10">
+      <c r="Q107" s="8">
         <v>1500</v>
       </c>
       <c r="R107" s="2" t="s">
@@ -7062,38 +7084,38 @@
         <v>detan-legs</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I108" s="7" t="s">
+      <c r="I108" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="J108" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="K108" s="11" t="s">
         <v>152</v>
       </c>
       <c r="L108" s="1">
         <v>11</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N108" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N108" s="7" t="s">
         <v>126</v>
       </c>
       <c r="O108" s="2" t="s">
@@ -7102,7 +7124,7 @@
       <c r="P108" s="1">
         <v>1</v>
       </c>
-      <c r="Q108" s="10">
+      <c r="Q108" s="8">
         <v>1500</v>
       </c>
       <c r="R108" s="2" t="s">
@@ -7111,7 +7133,7 @@
     </row>
     <row r="109" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G109" s="6"/>
-      <c r="J109" s="11"/>
+      <c r="J109" s="9"/>
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.25">

--- a/relatedFiles/other files/services import list.xlsx
+++ b/relatedFiles/other files/services import list.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB747ED-2F13-4237-A4E1-3853CF4B269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B195A4-9E0C-4339-9315-DC2400B2EFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" forceFullCalc="1"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="190">
   <si>
     <t>title</t>
   </si>
@@ -50,9 +53,6 @@
   </si>
   <si>
     <t>max_duration_unit</t>
-  </si>
-  <si>
-    <t>category_id</t>
   </si>
   <si>
     <t>short_description</t>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>Threading(men)</t>
+  </si>
+  <si>
+    <t>featured_images</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F96" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,19 +1073,19 @@
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="1"/>
     <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="83.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="32" style="1" customWidth="1"/>
     <col min="15" max="15" width="27.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="30.5703125" style="1"/>
+    <col min="17" max="17" width="17.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1108,13 +1111,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>7</v>
@@ -1123,6022 +1126,5808 @@
         <v>8</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(B2)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
         <v>hair-cut</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="6">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>179</v>
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="8">
         <v>700</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C66" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(B3)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
         <v>ironing</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" ca="1" si="2">RANDBETWEEN(2,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="8">
         <v>499</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>rebonding</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>179</v>
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8">
         <v>4500</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hair-wash-dry</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="1">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>179</v>
+        <v>146</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="8">
         <v>300</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hair-spa</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1">
-        <v>11</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>179</v>
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="8">
         <v>1800</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hair-oil-massage</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="1">
-        <v>11</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="8">
         <v>750</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>permanent-hair-straight</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="1">
-        <v>11</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>179</v>
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="8">
         <v>4500</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>permanent-hair-curl</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="1">
-        <v>11</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>179</v>
+        <v>148</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="8">
         <v>2999</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hair-extension</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="1">
-        <v>11</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="8">
         <v>2000</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hair-colour</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="1">
-        <v>11</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>179</v>
+        <v>26</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="8">
         <v>3500</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hair-highlight</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="1">
-        <v>11</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>179</v>
+        <v>27</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="8">
         <v>3999</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hair-treatment</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="1">
-        <v>11</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>179</v>
+        <v>19</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="8">
         <v>1999</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>manicure</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1">
-        <v>11</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>179</v>
+        <v>29</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="8">
         <v>1400</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>pedicure</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="1">
-        <v>11</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <v>1999</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>foot-massage</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="1">
-        <v>11</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>179</v>
+        <v>31</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="8">
         <v>799</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>bleach-arms-legs</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="1">
-        <v>11</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="8">
         <v>1999</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>detan-arms-legs</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="1">
-        <v>11</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="8">
         <v>2800</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>under-arm-waxing</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="1">
-        <v>11</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="8">
         <v>250</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>half-arm-waxing</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="1">
-        <v>11</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="8">
         <v>550</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>full-arm-waxing</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L21" s="1">
-        <v>11</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="8">
         <v>999</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>half-leg-waxing</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="1">
-        <v>11</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="8">
         <v>650</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>full-leg-waxing</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="L23" s="1">
-        <v>11</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="8">
         <v>1200</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>full-body-waxing</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="1">
-        <v>11</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="8">
         <v>2999</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>bikini-waxing</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="L25" s="1">
-        <v>11</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="8">
         <v>1999</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lower-lip-threading</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="1">
-        <v>11</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="8">
         <v>75</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>upper-lip-threading</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="1">
-        <v>11</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="8">
         <v>75</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>chinjawline-threading</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="1">
-        <v>11</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="8">
         <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>eyebrowsâ threading</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="1">
-        <v>11</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="8">
         <v>150</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>forehead-threading</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="1">
-        <v>11</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="8">
         <v>150</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>bleach-face-neck-</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" s="1">
-        <v>11</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>179</v>
+        <v>46</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="8">
         <v>800</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>detan-face-and-neck</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L32" s="1">
-        <v>11</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="8">
         <v>999</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>facial</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="L33" s="1">
-        <v>11</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="8">
         <v>1500</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>anit-ageing-facial</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L34" s="1">
-        <v>11</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>179</v>
+        <v>48</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="8">
         <v>2999</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-hair-cut</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="L35" s="1">
-        <v>11</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="8">
         <v>500</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-shave</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="L36" s="1">
-        <v>11</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="8">
         <v>250</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-beard-trim</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L37" s="1">
-        <v>11</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="8">
         <v>200</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-moustache-trim</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="L38" s="1">
-        <v>11</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="8">
         <v>100</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-head-massage</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="L39" s="1">
-        <v>11</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="8">
         <v>300</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-hair-color</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="L40" s="1">
-        <v>11</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="8">
         <v>1200</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-hair-color-pro</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="L41" s="1">
-        <v>11</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="8">
         <v>1999</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-facial</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L42" s="1">
-        <v>11</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="8">
         <v>1000</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-facial-pro</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="L43" s="1">
-        <v>11</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="8">
         <v>1999</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>manicure-for-men</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="L44" s="1">
-        <v>11</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="8">
         <v>1400</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>pedicure-for-men</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L45" s="1">
-        <v>11</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="8">
         <v>1999</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-eyebrow-threading</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L46" s="1">
-        <v>11</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="8">
         <v>150</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-chest-trimming</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L47" s="1">
-        <v>11</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="8">
         <v>500</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-back-trimming</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L48" s="1">
-        <v>11</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="8">
         <v>500</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-arms-trimming</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L49" s="1">
-        <v>11</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="8">
         <v>400</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-under-arm-trimming</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L50" s="1">
-        <v>11</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="8">
         <v>150</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-legs-trimming</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L51" s="1">
-        <v>11</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="8">
         <v>750</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-eyebrowsâ wax</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L52" s="1">
-        <v>11</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="8">
         <v>200</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-in-between-brows-wax</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L53" s="1">
-        <v>11</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="8">
         <v>100</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-earnose-wax</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L54" s="1">
-        <v>11</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="8">
         <v>200</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-neck-waxing</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L55" s="1">
-        <v>11</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="8">
         <v>250</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-chest-waxing</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L56" s="1">
-        <v>11</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="8">
         <v>1250</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-back-waxing</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L57" s="1">
-        <v>11</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="8">
         <v>1250</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-arms-waxing</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L58" s="1">
-        <v>11</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="8">
         <v>1000</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-under-arm-waxing</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L59" s="1">
-        <v>11</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="8">
         <v>300</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-legs-waxing</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L60" s="1">
-        <v>11</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="8">
         <v>1250</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>men-full-body-waxing</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L61" s="1">
-        <v>11</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="8">
         <v>3999</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>event-makeup</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L62" s="1">
-        <v>11</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>179</v>
+        <v>77</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="8">
         <v>2500</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>party-makeup</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L63" s="1">
-        <v>11</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>179</v>
+        <v>78</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="8">
         <v>2999</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>light-makeup</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="1">
-        <v>11</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>179</v>
+        <v>14</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="8">
         <v>2000</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>photoshoot-makeup</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L65" s="1">
-        <v>11</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>179</v>
+        <v>79</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="8">
         <v>4500</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>event-hairstyling</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L66" s="1">
-        <v>11</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="8">
         <v>1500</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C108" si="3">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(B67)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
+        <f t="shared" ref="C67:C108" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TRIM(B67)," ","-"),"'",""),"""",""),"/",""),"?",""),".",""),"&gt;",""),"&lt;",""),",",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"#",""),"'",""),"""",""),"---","-"),"--","-"))</f>
         <v>party-hairstyling</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E108" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G108" ca="1" si="5">RANDBETWEEN(2,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L67" s="1">
-        <v>11</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>179</v>
+        <v>81</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="8">
         <v>1300</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>makeup-hairstyling-photoshoot-package</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L68" s="1">
-        <v>11</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="8">
         <v>5000</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>engagement-hairstyling</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="1">
+        <v>30</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E69" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="K69" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L69" s="1">
-        <v>11</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>179</v>
+        <v>83</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="8">
         <v>1500</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridal-hairstyling</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" s="1">
+        <v>30</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E70" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="K70" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L70" s="1">
-        <v>11</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>179</v>
+        <v>84</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="8">
         <v>2000</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>reception-hairstyling</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="1">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J71" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E71" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="K71" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="L71" s="1">
-        <v>11</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>179</v>
+        <v>85</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="8">
         <v>1800</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridal-makeup</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="1">
+        <v>30</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J72" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E72" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="K72" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L72" s="1">
-        <v>11</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>179</v>
+        <v>86</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="8">
         <v>12500</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>engagement-makeup</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="1">
+        <v>30</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J73" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E73" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="K73" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L73" s="1">
-        <v>11</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>179</v>
+        <v>87</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="8">
         <v>6500</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>reception-makeup</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="1">
+        <v>30</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J74" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="K74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L74" s="1">
-        <v>11</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>179</v>
+        <v>88</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="8">
         <v>9999</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>pre-wedding-photoshoot-package</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L75" s="1">
-        <v>11</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="8">
         <v>5000</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>saree-draping</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L76" s="1">
-        <v>11</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>179</v>
+        <v>90</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="8">
         <v>500</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridal-dressing</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L77" s="1">
-        <v>11</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>179</v>
+        <v>91</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="8">
         <v>1000</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridal-mehendi</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L78" s="1">
-        <v>11</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>179</v>
+        <v>92</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="8">
         <v>5000</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridal-mehendi-pro</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L79" s="1">
-        <v>11</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="8">
         <v>8000</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridal-parties-mehendi-rate-per-person</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="L80" s="1">
-        <v>11</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="8">
         <v>1000</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridesmaid-makeup-only-per-person</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="L81" s="1">
-        <v>11</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="8">
         <v>1500</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridesmaid-hairstyling-only-per-person</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="L82" s="1">
-        <v>11</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="8">
         <v>500</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridesmaid-makeup-hairstyling-per-person</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="L83" s="1">
-        <v>11</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="8">
         <v>2000</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bridesmaid-silver-lining-package</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L84" s="1">
-        <v>11</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>179</v>
+        <v>98</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="8">
         <v>3000</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>golden-queen-bride</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L85" s="1">
-        <v>11</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="8">
         <v>16000</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>uncut-diamond-bride</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L86" s="1">
-        <v>11</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="8">
         <v>20000</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>platinum-perfect-bride</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L87" s="1">
-        <v>11</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="8">
         <v>24000</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>cut-file-polish-nails</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L88" s="1">
-        <v>11</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="8">
         <v>999</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>nail-art-both-hand</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="L89" s="1">
-        <v>11</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="8">
         <v>899</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>nail-extension-per-finger</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="L90" s="1">
-        <v>11</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="8">
         <v>300</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>artificial-nail-per-finger</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L91" s="1">
-        <v>11</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="8">
         <v>399</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>full-face-threading</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L92" s="1">
-        <v>11</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" s="8">
         <v>400</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bleach-arms</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L93" s="1">
-        <v>11</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="8">
         <v>999</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>bleach-legs</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L94" s="1">
-        <v>11</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="8">
         <v>1300</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>whitening-facial</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L95" s="1">
-        <v>11</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>179</v>
+        <v>109</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="8">
         <v>2500</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>de-tan-facial</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L96" s="1">
-        <v>11</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="8">
         <v>2500</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>face-cleansing</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="L97" s="1">
-        <v>11</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="8">
         <v>999</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>nose-cleansing</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L98" s="1">
-        <v>11</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>179</v>
+        <v>112</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="8">
         <v>499</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>keratin-hair-treatment</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" s="1">
-        <v>11</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>179</v>
+        <v>19</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99" s="8">
         <v>7000</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>nail-art-per-hand</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="L100" s="1">
-        <v>11</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="8">
         <v>500</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>fake-nail-per-finger</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L101" s="1">
-        <v>11</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="8">
         <v>399</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>groom-silver-package</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L102" s="1">
-        <v>11</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>179</v>
+        <v>116</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="8">
         <v>2500</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>groom-gold-package</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L103" s="1">
-        <v>11</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" s="8">
         <v>8999</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>best-friend-package</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L104" s="1">
-        <v>11</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>179</v>
+        <v>118</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="8">
         <v>1500</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>hair-dresser-service</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="L105" s="1">
-        <v>11</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="8">
         <v>2000</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>hair-colour-grey-to-black</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L106" s="1">
-        <v>11</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>179</v>
+        <v>26</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="8">
         <v>1200</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>detan-arms</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="L107" s="1">
-        <v>11</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="8">
         <v>1500</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>detan-legs</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="L108" s="1">
-        <v>11</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108" s="8">
         <v>1500</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G109" s="6"/>
       <c r="J109" s="9"/>
-      <c r="L109" s="2"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G110" s="6"/>
-      <c r="L110" s="2"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G111" s="6"/>
@@ -7155,10 +6944,48 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="N3:N108" r:id="rId1" display="https://murarkey.com/wp-content/uploads/2020/04/cover-eyeshadow-e1587130219589.jpg" xr:uid="{C98E5897-61EC-4BA2-ABF2-37424A076FF2}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{694B663B-900F-4535-8F47-56B68F0C6F6B}"/>
+    <hyperlink ref="M3:M108" r:id="rId1" display="https://murarkey.com/wp-content/uploads/2020/04/cover-eyeshadow-e1587130219589.jpg" xr:uid="{C98E5897-61EC-4BA2-ABF2-37424A076FF2}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{694B663B-900F-4535-8F47-56B68F0C6F6B}"/>
+    <hyperlink ref="N3:N108" r:id="rId3" display="https://murarkey.com/wp-content/uploads/2020/04/cover-eyeshadow-e1587130219589.jpg" xr:uid="{2E34E4FE-4731-46B0-BFD6-4AF7833BA7C8}"/>
+    <hyperlink ref="N2" r:id="rId4" xr:uid="{81B2D112-499B-4196-BAEA-634484EC58A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C680683-5B6E-4230-9E7F-AFDA5DA5263F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74153FF3-5923-4609-972E-77F1347C78B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C585E7-7CFC-4BE0-8045-13B145683FBA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/relatedFiles/other files/services import list.xlsx
+++ b/relatedFiles/other files/services import list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B195A4-9E0C-4339-9315-DC2400B2EFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59072385-76CB-4474-A8FC-D824056794CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="191">
   <si>
     <t>title</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>featured_images</t>
+  </si>
+  <si>
+    <t>HairCuts</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1177,7 @@
         <v>132</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>178</v>
